--- a/biology/Zoologie/Didemnum_molle/Didemnum_molle.xlsx
+++ b/biology/Zoologie/Didemnum_molle/Didemnum_molle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grande synascidie-urne, Ascidie molle, Didemnide verte, Didemnum molle
-Didemnum molle, communément nommée Grande synascidie-urne entre autres noms vernaculaires[2], est une espèce d'ascidies de la famille des Didemnidae.
+Didemnum molle, communément nommée Grande synascidie-urne entre autres noms vernaculaires, est une espèce d'ascidies de la famille des Didemnidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son corps a la forme d'une urne ventrue dont le diamètre varie de 1 cm à 10 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps a la forme d'une urne ventrue dont le diamètre varie de 1 cm à 10 cm.
 Cette espèce ne doit pas être confondue avec la proche Atriolum robustum, plus petite, plus ronde, et présentant de plus gros pores. 
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grande synascidie-urne est présente dans les eaux tropicales de l'Indo-Pacifique, mer Rouge incluse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande synascidie-urne est présente dans les eaux tropicales de l'Indo-Pacifique, mer Rouge incluse.
 </t>
         </is>
       </c>
